--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>821.046195086854</v>
+        <v>842.8456702972114</v>
       </c>
       <c r="R2">
-        <v>7389.415755781686</v>
+        <v>7585.611032674902</v>
       </c>
       <c r="S2">
-        <v>0.002836967427855945</v>
+        <v>0.003658357240544643</v>
       </c>
       <c r="T2">
-        <v>0.002927556271825548</v>
+        <v>0.003763597466123134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>1265.118891903559</v>
+        <v>1494.774525889413</v>
       </c>
       <c r="R3">
-        <v>11386.07002713203</v>
+        <v>13452.97073300472</v>
       </c>
       <c r="S3">
-        <v>0.00437137533816344</v>
+        <v>0.006488043306719366</v>
       </c>
       <c r="T3">
-        <v>0.00451096024652481</v>
+        <v>0.006674685314666222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>548.6877922180523</v>
+        <v>858.5689914135477</v>
       </c>
       <c r="R4">
-        <v>4938.190129962471</v>
+        <v>7727.120922721929</v>
       </c>
       <c r="S4">
-        <v>0.001895885278927746</v>
+        <v>0.003726604047378299</v>
       </c>
       <c r="T4">
-        <v>0.001956423885762176</v>
+        <v>0.003833807533752261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>318.3233288967556</v>
+        <v>277.4630367597936</v>
       </c>
       <c r="R5">
-        <v>1909.939973380533</v>
+        <v>1664.778220558761</v>
       </c>
       <c r="S5">
-        <v>0.001099905122282723</v>
+        <v>0.001204323573443471</v>
       </c>
       <c r="T5">
-        <v>0.0007566845516177092</v>
+        <v>0.0008259789574713432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>927.3676623923027</v>
+        <v>741.3112476234547</v>
       </c>
       <c r="R6">
-        <v>8346.308961530725</v>
+        <v>6671.801228611092</v>
       </c>
       <c r="S6">
-        <v>0.003204340836846045</v>
+        <v>0.003217648812604242</v>
       </c>
       <c r="T6">
-        <v>0.003306660493125587</v>
+        <v>0.003310211147172864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>48431.61437517132</v>
+        <v>42078.96665120669</v>
       </c>
       <c r="R7">
-        <v>435884.529376542</v>
+        <v>378710.6998608602</v>
       </c>
       <c r="S7">
-        <v>0.1673461411587275</v>
+        <v>0.1826430362616622</v>
       </c>
       <c r="T7">
-        <v>0.1726897673567203</v>
+        <v>0.1878971416080434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>74626.4347585651</v>
+        <v>74626.43475856508</v>
       </c>
       <c r="R8">
-        <v>671637.9128270859</v>
+        <v>671637.9128270858</v>
       </c>
       <c r="S8">
-        <v>0.2578573117249145</v>
+        <v>0.3239147658417203</v>
       </c>
       <c r="T8">
-        <v>0.266091102338409</v>
+        <v>0.3332328451827941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>32365.8226834091</v>
+        <v>42863.95152829246</v>
       </c>
       <c r="R9">
-        <v>291292.404150682</v>
+        <v>385775.5637546322</v>
       </c>
       <c r="S9">
-        <v>0.1118338837425335</v>
+        <v>0.1860502497172313</v>
       </c>
       <c r="T9">
-        <v>0.1154049160164302</v>
+        <v>0.1914023706178848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>18777.15627208725</v>
+        <v>13852.30805853321</v>
       </c>
       <c r="R10">
-        <v>112662.9376325235</v>
+        <v>83113.8483511993</v>
       </c>
       <c r="S10">
-        <v>0.06488085694866089</v>
+        <v>0.06012570660334512</v>
       </c>
       <c r="T10">
-        <v>0.04463507002029475</v>
+        <v>0.04123689808334548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>54703.27160366035</v>
+        <v>37009.87306004909</v>
       </c>
       <c r="R11">
-        <v>492329.4444329432</v>
+        <v>333088.8575404418</v>
       </c>
       <c r="S11">
-        <v>0.1890166481075094</v>
+        <v>0.1606407220827562</v>
       </c>
       <c r="T11">
-        <v>0.1950522477675342</v>
+        <v>0.1652618852763661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>1996.00068979718</v>
+        <v>1673.197565171407</v>
       </c>
       <c r="R12">
-        <v>17964.00620817462</v>
+        <v>15058.77808654266</v>
       </c>
       <c r="S12">
-        <v>0.006896797009495407</v>
+        <v>0.007262485462193798</v>
       </c>
       <c r="T12">
-        <v>0.007117022614501872</v>
+        <v>0.007471405903268054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>3075.561638340974</v>
+        <v>2967.39152295398</v>
       </c>
       <c r="R13">
-        <v>27680.05474506877</v>
+        <v>26706.52370658582</v>
       </c>
       <c r="S13">
-        <v>0.01062701251470218</v>
+        <v>0.01287991223790879</v>
       </c>
       <c r="T13">
-        <v>0.01096634978347194</v>
+        <v>0.01325042959863184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>1333.885009520897</v>
+        <v>1704.411135502717</v>
       </c>
       <c r="R14">
-        <v>12004.96508568807</v>
+        <v>15339.70021952445</v>
       </c>
       <c r="S14">
-        <v>0.004608983449604551</v>
+        <v>0.007397967431252891</v>
       </c>
       <c r="T14">
-        <v>0.004756155559680647</v>
+        <v>0.007610785291864959</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>773.8585086424351</v>
+        <v>550.8131487082841</v>
       </c>
       <c r="R15">
-        <v>4643.151051854611</v>
+        <v>3304.878892249704</v>
       </c>
       <c r="S15">
-        <v>0.002673919440739294</v>
+        <v>0.00239079506697065</v>
       </c>
       <c r="T15">
-        <v>0.001839534603565207</v>
+        <v>0.001639714160288119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>2254.473018579453</v>
+        <v>1471.633797585217</v>
       </c>
       <c r="R16">
-        <v>20290.25716721508</v>
+        <v>13244.70417826695</v>
       </c>
       <c r="S16">
-        <v>0.007789898496531483</v>
+        <v>0.006387601370637188</v>
       </c>
       <c r="T16">
-        <v>0.008038642240471704</v>
+        <v>0.006571353958192376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>679.906035504564</v>
+        <v>850.6821420216685</v>
       </c>
       <c r="R17">
-        <v>4079.436213027384</v>
+        <v>5104.09285213001</v>
       </c>
       <c r="S17">
-        <v>0.002349284715368629</v>
+        <v>0.003692371312258841</v>
       </c>
       <c r="T17">
-        <v>0.001616200720823729</v>
+        <v>0.002532393348721415</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>1047.641381670472</v>
+        <v>1508.672394407193</v>
       </c>
       <c r="R18">
-        <v>6285.848290022834</v>
+        <v>9052.03436644316</v>
       </c>
       <c r="S18">
-        <v>0.003619923572703145</v>
+        <v>0.006548366767718139</v>
       </c>
       <c r="T18">
-        <v>0.00249034229408487</v>
+        <v>0.004491162736667713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>454.366811233154</v>
+        <v>866.551652844715</v>
       </c>
       <c r="R19">
-        <v>2726.200867398924</v>
+        <v>5199.30991706829</v>
       </c>
       <c r="S19">
-        <v>0.001569977245471394</v>
+        <v>0.00376125265301832</v>
       </c>
       <c r="T19">
-        <v>0.00108007272988603</v>
+        <v>0.002579635252213403</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>263.6026497095131</v>
+        <v>280.0427869071526</v>
       </c>
       <c r="R20">
-        <v>1054.410598838052</v>
+        <v>1120.17114762861</v>
       </c>
       <c r="S20">
-        <v>0.0009108283256136395</v>
+        <v>0.00121552093490949</v>
       </c>
       <c r="T20">
-        <v>0.0004177388935373459</v>
+        <v>0.0005557724057665851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>767.950542326776</v>
+        <v>748.2036893073216</v>
       </c>
       <c r="R21">
-        <v>4607.703253960656</v>
+        <v>4489.22213584393</v>
       </c>
       <c r="S21">
-        <v>0.002653505597885273</v>
+        <v>0.003247565338046337</v>
       </c>
       <c r="T21">
-        <v>0.001825490810865405</v>
+        <v>0.002227325522301164</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>9304.813537879663</v>
+        <v>624.0937483946291</v>
       </c>
       <c r="R22">
-        <v>83743.32184091696</v>
+        <v>5616.843735551661</v>
       </c>
       <c r="S22">
-        <v>0.0321509959941355</v>
+        <v>0.002708868258661198</v>
       </c>
       <c r="T22">
-        <v>0.03317762799948822</v>
+        <v>0.002786794466480498</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>14337.43370696248</v>
+        <v>1106.821177046764</v>
       </c>
       <c r="R23">
-        <v>129036.9033626623</v>
+        <v>9961.390593420876</v>
       </c>
       <c r="S23">
-        <v>0.0495402483673817</v>
+        <v>0.004804138420274886</v>
       </c>
       <c r="T23">
-        <v>0.05112214662447935</v>
+        <v>0.004942339415370914</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>6218.209922475507</v>
+        <v>635.736243288441</v>
       </c>
       <c r="R24">
-        <v>55963.88930227955</v>
+        <v>5721.626189595969</v>
       </c>
       <c r="S24">
-        <v>0.02148583004853645</v>
+        <v>0.002759402308955082</v>
       </c>
       <c r="T24">
-        <v>0.02217190648590157</v>
+        <v>0.002838782233429874</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>3607.518356294343</v>
+        <v>205.4503603148535</v>
       </c>
       <c r="R25">
-        <v>21645.11013776605</v>
+        <v>1232.702161889121</v>
       </c>
       <c r="S25">
-        <v>0.01246508678006458</v>
+        <v>0.0008917537809327664</v>
       </c>
       <c r="T25">
-        <v>0.008575411105890399</v>
+        <v>0.0006116046173454301</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>10509.74139001631</v>
+        <v>548.9115404641969</v>
       </c>
       <c r="R26">
-        <v>94587.67251014677</v>
+        <v>4940.203864177773</v>
       </c>
       <c r="S26">
-        <v>0.03631439275534512</v>
+        <v>0.002382541168856678</v>
       </c>
       <c r="T26">
-        <v>0.03747396858510749</v>
+        <v>0.002451079901838149</v>
       </c>
     </row>
   </sheetData>
